--- a/数值/S_属性_doc.xlsx
+++ b/数值/S_属性_doc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>int</t>
   </si>
@@ -43,6 +43,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命加成</t>
+  </si>
+  <si>
+    <t>能量加成</t>
+  </si>
+  <si>
+    <t>定力加成</t>
+  </si>
+  <si>
+    <t>攻击加成</t>
+  </si>
+  <si>
+    <t>防御加成</t>
+  </si>
+  <si>
+    <t>速度加成</t>
+  </si>
+  <si>
+    <t>格挡减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,15 +129,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命中率</t>
+    <t>定力恢复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,81 +141,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击减伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定力恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命加成</t>
-  </si>
-  <si>
-    <t>能量加成</t>
-  </si>
-  <si>
-    <t>定力加成</t>
-  </si>
-  <si>
-    <t>攻击加成</t>
-  </si>
-  <si>
-    <t>防御加成</t>
-  </si>
-  <si>
-    <t>速度加成</t>
-  </si>
-  <si>
-    <t>格挡减免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害反弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
+    <t>生命恢复加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量恢复加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定力恢复加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,10 +536,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -551,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -559,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -567,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -575,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -583,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -591,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -599,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -607,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -615,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -623,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -631,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -639,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -647,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -655,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -663,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -671,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -679,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -687,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -695,7 +707,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -703,7 +715,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -711,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -719,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -727,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -735,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -743,7 +755,31 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
